--- a/Health-care System Test Cases Writing/Doctor registration.xlsx
+++ b/Health-care System Test Cases Writing/Doctor registration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA and Cyber Security Course\TestCase Github\Test-Cases\Health-care System Test Cases Writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D325E1F3-C2E4-4129-ACFF-4E7A0D673D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AB58A0-89F7-4E91-AC25-66BA609C10B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,9 +160,6 @@
     <t>asdfasdf</t>
   </si>
   <si>
-    <t>Test Cases for Registration Process</t>
-  </si>
-  <si>
     <t>http://localhost/Health-care-system/register.php</t>
   </si>
   <si>
@@ -470,6 +467,9 @@
   </si>
   <si>
     <t>BackToLogin</t>
+  </si>
+  <si>
+    <t>Test Cases for Doctor Registration Process</t>
   </si>
 </sst>
 </file>
@@ -852,7 +852,7 @@
     <cellStyle name="Style 1" xfId="2" xr:uid="{38058E7C-442D-4440-B6B3-F600BAD3BA5F}"/>
     <cellStyle name="Style 2" xfId="3" xr:uid="{F77A28A5-0495-4E2A-9187-7CC681F21055}"/>
   </cellStyles>
-  <dxfs count="440">
+  <dxfs count="216">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2155,6 +2155,36 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
@@ -2196,6 +2226,36 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
@@ -2494,6 +2554,17 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
@@ -2531,2373 +2602,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5646,7 +3350,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I122" sqref="I122"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5689,13 +3393,13 @@
       </c>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
@@ -5817,7 +3521,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>28</v>
@@ -5827,16 +3531,16 @@
         <v>36</v>
       </c>
       <c r="F7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>53</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5846,7 +3550,7 @@
         <v>29</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>40</v>
@@ -5863,7 +3567,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>39</v>
@@ -5881,7 +3585,7 @@
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
@@ -5896,7 +3600,7 @@
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -5908,28 +3612,28 @@
         <v>31</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>125</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>126</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>0</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5940,7 +3644,7 @@
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -5952,28 +3656,28 @@
         <v>32</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5983,10 +3687,10 @@
         <v>29</v>
       </c>
       <c r="D15" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="17"/>
@@ -6000,10 +3704,10 @@
         <v>38</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
@@ -6017,7 +3721,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>37</v>
@@ -6034,10 +3738,10 @@
         <v>42</v>
       </c>
       <c r="D18" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>62</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="17"/>
@@ -6048,13 +3752,13 @@
       <c r="A19" s="21"/>
       <c r="B19" s="17"/>
       <c r="C19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="E19" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -6065,13 +3769,13 @@
       <c r="A20" s="15"/>
       <c r="B20" s="17"/>
       <c r="C20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="E20" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>68</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -6082,13 +3786,13 @@
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="17"/>
@@ -6099,11 +3803,11 @@
       <c r="A22" s="21"/>
       <c r="B22" s="17"/>
       <c r="C22" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
@@ -6115,28 +3819,28 @@
         <v>33</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="H23" s="18" t="s">
         <v>1</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6146,10 +3850,10 @@
         <v>29</v>
       </c>
       <c r="D24" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
@@ -6163,10 +3867,10 @@
         <v>38</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -6180,7 +3884,7 @@
         <v>41</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>44</v>
@@ -6197,10 +3901,10 @@
         <v>42</v>
       </c>
       <c r="D27" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>62</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="17"/>
@@ -6211,13 +3915,13 @@
       <c r="A28" s="21"/>
       <c r="B28" s="17"/>
       <c r="C28" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="E28" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -6228,13 +3932,13 @@
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="E29" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>68</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="17"/>
@@ -6245,13 +3949,13 @@
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
@@ -6262,11 +3966,11 @@
       <c r="A31" s="21"/>
       <c r="B31" s="17"/>
       <c r="C31" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -6275,31 +3979,31 @@
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F32" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>128</v>
       </c>
       <c r="H32" s="18" t="s">
         <v>0</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6309,10 +4013,10 @@
         <v>29</v>
       </c>
       <c r="D33" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="17"/>
@@ -6326,10 +4030,10 @@
         <v>38</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -6343,10 +4047,10 @@
         <v>41</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="17"/>
@@ -6360,10 +4064,10 @@
         <v>42</v>
       </c>
       <c r="D36" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>62</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="17"/>
@@ -6374,13 +4078,13 @@
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="E37" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
@@ -6391,13 +4095,13 @@
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="E38" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>68</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="17"/>
@@ -6408,13 +4112,13 @@
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="17"/>
@@ -6425,11 +4129,11 @@
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" s="28"/>
       <c r="E40" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
@@ -6438,31 +4142,31 @@
     </row>
     <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D41" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G41" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="H41" s="18" t="s">
         <v>1</v>
       </c>
       <c r="I41" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6472,10 +4176,10 @@
         <v>29</v>
       </c>
       <c r="D42" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
@@ -6489,10 +4193,10 @@
         <v>38</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
@@ -6506,10 +4210,10 @@
         <v>41</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="17"/>
@@ -6523,10 +4227,10 @@
         <v>42</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="17"/>
@@ -6537,13 +4241,13 @@
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="E46" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
@@ -6554,13 +4258,13 @@
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="E47" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>68</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="17"/>
@@ -6571,13 +4275,13 @@
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="17"/>
@@ -6588,11 +4292,11 @@
       <c r="A49" s="15"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D49" s="28"/>
       <c r="E49" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
@@ -6601,31 +4305,31 @@
     </row>
     <row r="50" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D50" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="H50" s="18" t="s">
         <v>1</v>
       </c>
       <c r="I50" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6635,10 +4339,10 @@
         <v>29</v>
       </c>
       <c r="D51" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="17"/>
@@ -6652,10 +4356,10 @@
         <v>38</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
@@ -6669,10 +4373,10 @@
         <v>41</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="17"/>
@@ -6686,10 +4390,10 @@
         <v>42</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="17"/>
@@ -6700,13 +4404,13 @@
       <c r="A55" s="15"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D55" s="28" t="s">
         <v>45</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
@@ -6717,13 +4421,13 @@
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D56" s="27" t="s">
+      <c r="E56" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>68</v>
       </c>
       <c r="F56" s="16"/>
       <c r="G56" s="17"/>
@@ -6734,13 +4438,13 @@
       <c r="A57" s="15"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="17"/>
@@ -6751,11 +4455,11 @@
       <c r="A58" s="15"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D58" s="28"/>
       <c r="E58" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
@@ -6764,31 +4468,31 @@
     </row>
     <row r="59" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D59" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G59" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="H59" s="18" t="s">
         <v>1</v>
       </c>
       <c r="I59" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6798,10 +4502,10 @@
         <v>29</v>
       </c>
       <c r="D60" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="17"/>
@@ -6815,10 +4519,10 @@
         <v>38</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
@@ -6832,10 +4536,10 @@
         <v>41</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F62" s="16"/>
       <c r="G62" s="17"/>
@@ -6849,10 +4553,10 @@
         <v>42</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="17"/>
@@ -6863,13 +4567,13 @@
       <c r="A64" s="15"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D64" s="28" t="s">
+      <c r="E64" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
@@ -6880,13 +4584,13 @@
       <c r="A65" s="15"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F65" s="16"/>
       <c r="G65" s="17"/>
@@ -6897,13 +4601,13 @@
       <c r="A66" s="15"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F66" s="16"/>
       <c r="G66" s="17"/>
@@ -6914,11 +4618,11 @@
       <c r="A67" s="15"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D67" s="28"/>
       <c r="E67" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
@@ -6927,31 +4631,31 @@
     </row>
     <row r="68" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D68" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G68" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="H68" s="18" t="s">
         <v>1</v>
       </c>
       <c r="I68" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6961,10 +4665,10 @@
         <v>29</v>
       </c>
       <c r="D69" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="F69" s="16"/>
       <c r="G69" s="17"/>
@@ -6978,10 +4682,10 @@
         <v>38</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
@@ -6995,10 +4699,10 @@
         <v>41</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F71" s="16"/>
       <c r="G71" s="17"/>
@@ -7012,10 +4716,10 @@
         <v>42</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="17"/>
@@ -7026,13 +4730,13 @@
       <c r="A73" s="15"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D73" s="28" t="s">
+      <c r="E73" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
@@ -7043,13 +4747,13 @@
       <c r="A74" s="15"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D74" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>100</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="17"/>
@@ -7060,13 +4764,13 @@
       <c r="A75" s="15"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F75" s="16"/>
       <c r="G75" s="17"/>
@@ -7077,11 +4781,11 @@
       <c r="A76" s="15"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D76" s="28"/>
       <c r="E76" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
@@ -7090,29 +4794,29 @@
     </row>
     <row r="77" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C77" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D77" s="27"/>
       <c r="E77" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H77" s="18" t="s">
         <v>0</v>
       </c>
       <c r="I77" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7122,10 +4826,10 @@
         <v>29</v>
       </c>
       <c r="D78" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E78" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="F78" s="16"/>
       <c r="G78" s="17"/>
@@ -7139,10 +4843,10 @@
         <v>38</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F79" s="17"/>
       <c r="G79" s="17"/>
@@ -7156,10 +4860,10 @@
         <v>41</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="17"/>
@@ -7173,10 +4877,10 @@
         <v>42</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F81" s="16"/>
       <c r="G81" s="17"/>
@@ -7187,13 +4891,13 @@
       <c r="A82" s="15"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D82" s="28" t="s">
+      <c r="E82" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
@@ -7204,13 +4908,13 @@
       <c r="A83" s="15"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D83" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D83" s="27" t="s">
+      <c r="E83" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>68</v>
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="17"/>
@@ -7221,13 +4925,13 @@
       <c r="A84" s="15"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F84" s="16"/>
       <c r="G84" s="17"/>
@@ -7238,11 +4942,11 @@
       <c r="A85" s="15"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D85" s="28"/>
       <c r="E85" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F85" s="17"/>
       <c r="G85" s="17"/>
@@ -7251,31 +4955,31 @@
     </row>
     <row r="86" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H86" s="18" t="s">
         <v>0</v>
       </c>
       <c r="I86" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7285,10 +4989,10 @@
         <v>29</v>
       </c>
       <c r="D87" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E87" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="E87" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="F87" s="16"/>
       <c r="G87" s="17"/>
@@ -7302,10 +5006,10 @@
         <v>38</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
@@ -7320,7 +5024,7 @@
       </c>
       <c r="D89" s="27"/>
       <c r="E89" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F89" s="16"/>
       <c r="G89" s="17"/>
@@ -7334,10 +5038,10 @@
         <v>42</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F90" s="16"/>
       <c r="G90" s="17"/>
@@ -7348,13 +5052,13 @@
       <c r="A91" s="15"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D91" s="28" t="s">
+      <c r="E91" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="F91" s="17"/>
       <c r="G91" s="17"/>
@@ -7365,13 +5069,13 @@
       <c r="A92" s="15"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D92" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D92" s="27" t="s">
+      <c r="E92" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>68</v>
       </c>
       <c r="F92" s="16"/>
       <c r="G92" s="17"/>
@@ -7382,13 +5086,13 @@
       <c r="A93" s="15"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F93" s="16"/>
       <c r="G93" s="17"/>
@@ -7399,11 +5103,11 @@
       <c r="A94" s="15"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D94" s="28"/>
       <c r="E94" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F94" s="17"/>
       <c r="G94" s="17"/>
@@ -7412,31 +5116,31 @@
     </row>
     <row r="95" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C95" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D95" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H95" s="18" t="s">
         <v>0</v>
       </c>
       <c r="I95" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7446,10 +5150,10 @@
         <v>29</v>
       </c>
       <c r="D96" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E96" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="E96" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="F96" s="16"/>
       <c r="G96" s="17"/>
@@ -7463,10 +5167,10 @@
         <v>38</v>
       </c>
       <c r="D97" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F97" s="17"/>
       <c r="G97" s="17"/>
@@ -7480,10 +5184,10 @@
         <v>41</v>
       </c>
       <c r="D98" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F98" s="16"/>
       <c r="G98" s="17"/>
@@ -7498,7 +5202,7 @@
       </c>
       <c r="D99" s="26"/>
       <c r="E99" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F99" s="16"/>
       <c r="G99" s="17"/>
@@ -7509,13 +5213,13 @@
       <c r="A100" s="15"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D100" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D100" s="28" t="s">
+      <c r="E100" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="F100" s="17"/>
       <c r="G100" s="17"/>
@@ -7526,13 +5230,13 @@
       <c r="A101" s="15"/>
       <c r="B101" s="16"/>
       <c r="C101" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D101" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D101" s="27" t="s">
+      <c r="E101" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>68</v>
       </c>
       <c r="F101" s="16"/>
       <c r="G101" s="17"/>
@@ -7543,13 +5247,13 @@
       <c r="A102" s="15"/>
       <c r="B102" s="16"/>
       <c r="C102" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F102" s="16"/>
       <c r="G102" s="17"/>
@@ -7560,11 +5264,11 @@
       <c r="A103" s="15"/>
       <c r="B103" s="16"/>
       <c r="C103" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D103" s="28"/>
       <c r="E103" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F103" s="17"/>
       <c r="G103" s="17"/>
@@ -7573,31 +5277,31 @@
     </row>
     <row r="104" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>111</v>
       </c>
       <c r="C104" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D104" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H104" s="18" t="s">
         <v>0</v>
       </c>
       <c r="I104" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7607,10 +5311,10 @@
         <v>29</v>
       </c>
       <c r="D105" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E105" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="E105" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="F105" s="16"/>
       <c r="G105" s="17"/>
@@ -7624,10 +5328,10 @@
         <v>38</v>
       </c>
       <c r="D106" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F106" s="17"/>
       <c r="G106" s="17"/>
@@ -7641,10 +5345,10 @@
         <v>41</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F107" s="16"/>
       <c r="G107" s="17"/>
@@ -7658,10 +5362,10 @@
         <v>42</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F108" s="16"/>
       <c r="G108" s="17"/>
@@ -7672,13 +5376,13 @@
       <c r="A109" s="15"/>
       <c r="B109" s="16"/>
       <c r="C109" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D109" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D109" s="28" t="s">
+      <c r="E109" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="F109" s="17"/>
       <c r="G109" s="17"/>
@@ -7689,11 +5393,11 @@
       <c r="A110" s="15"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D110" s="27"/>
       <c r="E110" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F110" s="16"/>
       <c r="G110" s="17"/>
@@ -7704,11 +5408,11 @@
       <c r="A111" s="15"/>
       <c r="B111" s="16"/>
       <c r="C111" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D111" s="26"/>
       <c r="E111" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F111" s="16"/>
       <c r="G111" s="17"/>
@@ -7719,11 +5423,11 @@
       <c r="A112" s="15"/>
       <c r="B112" s="16"/>
       <c r="C112" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D112" s="28"/>
       <c r="E112" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F112" s="17"/>
       <c r="G112" s="17"/>
@@ -7732,31 +5436,31 @@
     </row>
     <row r="113" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="C113" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D113" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F113" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G113" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="G113" s="16" t="s">
-        <v>134</v>
       </c>
       <c r="H113" s="18" t="s">
         <v>0</v>
       </c>
       <c r="I113" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7766,10 +5470,10 @@
         <v>29</v>
       </c>
       <c r="D114" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E114" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="E114" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="F114" s="16"/>
       <c r="G114" s="17"/>
@@ -7783,10 +5487,10 @@
         <v>38</v>
       </c>
       <c r="D115" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F115" s="17"/>
       <c r="G115" s="17"/>
@@ -7800,10 +5504,10 @@
         <v>41</v>
       </c>
       <c r="D116" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F116" s="16"/>
       <c r="G116" s="17"/>
@@ -7817,10 +5521,10 @@
         <v>42</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F117" s="16"/>
       <c r="G117" s="17"/>
@@ -7831,13 +5535,13 @@
       <c r="A118" s="15"/>
       <c r="B118" s="16"/>
       <c r="C118" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D118" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D118" s="28" t="s">
+      <c r="E118" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="E118" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="F118" s="17"/>
       <c r="G118" s="17"/>
@@ -7848,13 +5552,13 @@
       <c r="A119" s="15"/>
       <c r="B119" s="16"/>
       <c r="C119" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D119" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D119" s="27" t="s">
-        <v>67</v>
-      </c>
       <c r="E119" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F119" s="16"/>
       <c r="G119" s="17"/>
@@ -7865,13 +5569,13 @@
       <c r="A120" s="15"/>
       <c r="B120" s="16"/>
       <c r="C120" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D120" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F120" s="16"/>
       <c r="G120" s="17"/>
@@ -7882,11 +5586,11 @@
       <c r="A121" s="15"/>
       <c r="B121" s="16"/>
       <c r="C121" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D121" s="28"/>
       <c r="E121" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F121" s="17"/>
       <c r="G121" s="17"/>
@@ -7895,29 +5599,29 @@
     </row>
     <row r="122" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B122" s="16" t="s">
         <v>118</v>
-      </c>
-      <c r="B122" s="16" t="s">
-        <v>119</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D122" s="27"/>
       <c r="E122" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F122" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="F122" s="16" t="s">
+      <c r="G122" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="G122" s="16" t="s">
-        <v>122</v>
       </c>
       <c r="H122" s="18" t="s">
         <v>0</v>
       </c>
       <c r="I122" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9267,1082 +6971,1082 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H15 H18 H21 H10:H11 H24">
-    <cfRule type="cellIs" dxfId="439" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="433" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15 H18 H21 H10:H11 H24">
-    <cfRule type="cellIs" dxfId="438" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="434" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15 H18 H21 H10:H11 H24">
-    <cfRule type="cellIs" dxfId="437" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="435" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15 H18 H21 H10:H11 H24">
-    <cfRule type="containsBlanks" dxfId="436" priority="436">
+    <cfRule type="containsBlanks" dxfId="212" priority="436">
       <formula>LEN(TRIM(H10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="435" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="421" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="434" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="422" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="433" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="423" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsBlanks" dxfId="432" priority="424">
+    <cfRule type="containsBlanks" dxfId="208" priority="424">
       <formula>LEN(TRIM(H29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="431" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="405" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="430" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="406" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="429" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="407" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="containsBlanks" dxfId="428" priority="408">
+    <cfRule type="containsBlanks" dxfId="204" priority="408">
       <formula>LEN(TRIM(I2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="427" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="401" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="426" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="402" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="425" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="403" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsBlanks" dxfId="424" priority="404">
+    <cfRule type="containsBlanks" dxfId="200" priority="404">
       <formula>LEN(TRIM(I3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H8">
-    <cfRule type="cellIs" dxfId="423" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="397" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H8">
-    <cfRule type="cellIs" dxfId="422" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="398" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H8">
-    <cfRule type="cellIs" dxfId="421" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="399" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H8">
-    <cfRule type="containsBlanks" dxfId="420" priority="400">
+    <cfRule type="containsBlanks" dxfId="196" priority="400">
       <formula>LEN(TRIM(H7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="415" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="357" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="414" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="358" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="413" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="359" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsBlanks" dxfId="412" priority="360">
+    <cfRule type="containsBlanks" dxfId="192" priority="360">
       <formula>LEN(TRIM(H20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="411" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="369" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="410" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="370" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="409" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="371" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsBlanks" dxfId="408" priority="372">
+    <cfRule type="containsBlanks" dxfId="188" priority="372">
       <formula>LEN(TRIM(H14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="407" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="365" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="406" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="366" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="405" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="367" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsBlanks" dxfId="404" priority="368">
+    <cfRule type="containsBlanks" dxfId="184" priority="368">
       <formula>LEN(TRIM(H16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="403" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="361" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="402" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="362" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="401" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="363" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="containsBlanks" dxfId="400" priority="364">
+    <cfRule type="containsBlanks" dxfId="180" priority="364">
       <formula>LEN(TRIM(H17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="399" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="353" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="398" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="354" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="397" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="355" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsBlanks" dxfId="396" priority="356">
+    <cfRule type="containsBlanks" dxfId="176" priority="356">
       <formula>LEN(TRIM(H22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="395" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="349" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="394" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="350" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="393" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="351" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsBlanks" dxfId="392" priority="352">
+    <cfRule type="containsBlanks" dxfId="172" priority="352">
       <formula>LEN(TRIM(H23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169">
-    <cfRule type="cellIs" dxfId="391" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="41" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="cellIs" dxfId="387" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="149" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="cellIs" dxfId="386" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="150" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="cellIs" dxfId="385" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="151" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="containsBlanks" dxfId="384" priority="152">
+    <cfRule type="containsBlanks" dxfId="167" priority="152">
       <formula>LEN(TRIM(H87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H13">
-    <cfRule type="cellIs" dxfId="379" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="371" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="145" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="370" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="146" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="369" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="147" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="containsBlanks" dxfId="368" priority="148">
+    <cfRule type="containsBlanks" dxfId="162" priority="148">
       <formula>LEN(TRIM(H92))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="367" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="141" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="366" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="142" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="365" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="143" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="containsBlanks" dxfId="364" priority="144">
+    <cfRule type="containsBlanks" dxfId="158" priority="144">
       <formula>LEN(TRIM(H86))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="363" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="137" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="362" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="138" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="361" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="139" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="containsBlanks" dxfId="360" priority="140">
+    <cfRule type="containsBlanks" dxfId="154" priority="140">
       <formula>LEN(TRIM(H96))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H119">
-    <cfRule type="cellIs" dxfId="359" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="105" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H119">
-    <cfRule type="cellIs" dxfId="358" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="106" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H119">
-    <cfRule type="cellIs" dxfId="357" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="107" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H119">
-    <cfRule type="containsBlanks" dxfId="356" priority="108">
+    <cfRule type="containsBlanks" dxfId="150" priority="108">
       <formula>LEN(TRIM(H119))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H101">
-    <cfRule type="cellIs" dxfId="355" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="133" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H101">
-    <cfRule type="cellIs" dxfId="354" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="134" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H101">
-    <cfRule type="cellIs" dxfId="353" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="135" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H101">
-    <cfRule type="containsBlanks" dxfId="352" priority="136">
+    <cfRule type="containsBlanks" dxfId="146" priority="136">
       <formula>LEN(TRIM(H101))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H156">
-    <cfRule type="cellIs" dxfId="351" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="53" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H156">
-    <cfRule type="cellIs" dxfId="350" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="54" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H156">
-    <cfRule type="cellIs" dxfId="349" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="55" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H156">
-    <cfRule type="containsBlanks" dxfId="348" priority="56">
+    <cfRule type="containsBlanks" dxfId="142" priority="56">
       <formula>LEN(TRIM(H156))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H161">
-    <cfRule type="cellIs" dxfId="347" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="49" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H161">
-    <cfRule type="cellIs" dxfId="346" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="50" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H161">
-    <cfRule type="cellIs" dxfId="345" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="51" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H161">
-    <cfRule type="containsBlanks" dxfId="344" priority="52">
+    <cfRule type="containsBlanks" dxfId="138" priority="52">
       <formula>LEN(TRIM(H161))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H164">
-    <cfRule type="cellIs" dxfId="343" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="45" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H164">
-    <cfRule type="cellIs" dxfId="342" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="46" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H164">
-    <cfRule type="cellIs" dxfId="341" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="47" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H164">
-    <cfRule type="containsBlanks" dxfId="340" priority="48">
+    <cfRule type="containsBlanks" dxfId="134" priority="48">
       <formula>LEN(TRIM(H164))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169">
-    <cfRule type="cellIs" dxfId="338" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="42" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169">
-    <cfRule type="cellIs" dxfId="337" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="43" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169">
-    <cfRule type="containsBlanks" dxfId="336" priority="44">
+    <cfRule type="containsBlanks" dxfId="131" priority="44">
       <formula>LEN(TRIM(H169))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H153">
-    <cfRule type="cellIs" dxfId="331" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="57" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H153">
-    <cfRule type="cellIs" dxfId="330" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="58" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H153">
-    <cfRule type="cellIs" dxfId="329" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="59" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H153">
-    <cfRule type="containsBlanks" dxfId="328" priority="60">
+    <cfRule type="containsBlanks" dxfId="127" priority="60">
       <formula>LEN(TRIM(H153))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H13">
-    <cfRule type="cellIs" dxfId="290" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H13">
-    <cfRule type="cellIs" dxfId="289" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="3" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H13">
-    <cfRule type="containsBlanks" dxfId="288" priority="4">
+    <cfRule type="containsBlanks" dxfId="124" priority="4">
       <formula>LEN(TRIM(H12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H143">
-    <cfRule type="cellIs" dxfId="287" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="73" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H143">
-    <cfRule type="cellIs" dxfId="286" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="74" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H143">
-    <cfRule type="cellIs" dxfId="285" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="75" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H143">
-    <cfRule type="containsBlanks" dxfId="284" priority="76">
+    <cfRule type="containsBlanks" dxfId="120" priority="76">
       <formula>LEN(TRIM(H143))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H146">
-    <cfRule type="cellIs" dxfId="283" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="69" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H146">
-    <cfRule type="cellIs" dxfId="282" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="70" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H146">
-    <cfRule type="cellIs" dxfId="281" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="71" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H146">
-    <cfRule type="containsBlanks" dxfId="280" priority="72">
+    <cfRule type="containsBlanks" dxfId="116" priority="72">
       <formula>LEN(TRIM(H146))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="263" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="233" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="262" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="234" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="261" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="235" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="containsBlanks" dxfId="260" priority="236">
+    <cfRule type="containsBlanks" dxfId="112" priority="236">
       <formula>LEN(TRIM(H33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="259" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="229" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="258" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="230" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="257" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="231" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="containsBlanks" dxfId="256" priority="232">
+    <cfRule type="containsBlanks" dxfId="108" priority="232">
       <formula>LEN(TRIM(H38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="255" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="225" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="254" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="226" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="253" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="227" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsBlanks" dxfId="252" priority="228">
+    <cfRule type="containsBlanks" dxfId="104" priority="228">
       <formula>LEN(TRIM(H32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="251" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="221" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="250" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="222" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="249" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="223" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="containsBlanks" dxfId="248" priority="224">
+    <cfRule type="containsBlanks" dxfId="100" priority="224">
       <formula>LEN(TRIM(H42))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="247" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="217" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="246" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="218" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="245" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="219" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="containsBlanks" dxfId="244" priority="220">
+    <cfRule type="containsBlanks" dxfId="96" priority="220">
       <formula>LEN(TRIM(H47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="243" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="213" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="242" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="214" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="241" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="215" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="containsBlanks" dxfId="240" priority="216">
+    <cfRule type="containsBlanks" dxfId="92" priority="216">
       <formula>LEN(TRIM(H41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="239" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="209" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="238" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="210" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="237" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="211" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="containsBlanks" dxfId="236" priority="212">
+    <cfRule type="containsBlanks" dxfId="88" priority="212">
       <formula>LEN(TRIM(H51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="235" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="205" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="234" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="206" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="233" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="207" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="containsBlanks" dxfId="232" priority="208">
+    <cfRule type="containsBlanks" dxfId="84" priority="208">
       <formula>LEN(TRIM(H56))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="231" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="201" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="230" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="202" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="229" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="203" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="containsBlanks" dxfId="228" priority="204">
+    <cfRule type="containsBlanks" dxfId="80" priority="204">
       <formula>LEN(TRIM(H50))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="223" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="185" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="222" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="186" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="221" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="187" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="containsBlanks" dxfId="220" priority="188">
+    <cfRule type="containsBlanks" dxfId="76" priority="188">
       <formula>LEN(TRIM(H60))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="211" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="181" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="210" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="182" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="209" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="183" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="containsBlanks" dxfId="208" priority="184">
+    <cfRule type="containsBlanks" dxfId="72" priority="184">
       <formula>LEN(TRIM(H65))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="207" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="177" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="206" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="178" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="205" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="179" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="containsBlanks" dxfId="204" priority="180">
+    <cfRule type="containsBlanks" dxfId="68" priority="180">
       <formula>LEN(TRIM(H59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="203" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="173" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="202" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="174" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="201" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="175" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="containsBlanks" dxfId="200" priority="176">
+    <cfRule type="containsBlanks" dxfId="64" priority="176">
       <formula>LEN(TRIM(H69))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="cellIs" dxfId="199" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="169" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="cellIs" dxfId="198" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="170" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="cellIs" dxfId="197" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="171" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="containsBlanks" dxfId="196" priority="172">
+    <cfRule type="containsBlanks" dxfId="60" priority="172">
       <formula>LEN(TRIM(H74))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="195" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="165" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="194" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="166" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="193" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="167" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="containsBlanks" dxfId="192" priority="168">
+    <cfRule type="containsBlanks" dxfId="56" priority="168">
       <formula>LEN(TRIM(H68))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="cellIs" dxfId="191" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="161" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="cellIs" dxfId="190" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="162" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="cellIs" dxfId="189" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="163" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="containsBlanks" dxfId="188" priority="164">
+    <cfRule type="containsBlanks" dxfId="52" priority="164">
       <formula>LEN(TRIM(H78))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="187" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="157" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="186" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="158" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="185" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="159" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="containsBlanks" dxfId="184" priority="160">
+    <cfRule type="containsBlanks" dxfId="48" priority="160">
       <formula>LEN(TRIM(H83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114">
-    <cfRule type="cellIs" dxfId="179" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="109" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114">
-    <cfRule type="cellIs" dxfId="178" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="110" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114">
-    <cfRule type="cellIs" dxfId="177" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="111" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114">
-    <cfRule type="containsBlanks" dxfId="176" priority="112">
+    <cfRule type="containsBlanks" dxfId="44" priority="112">
       <formula>LEN(TRIM(H114))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113">
-    <cfRule type="cellIs" dxfId="171" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="101" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113">
-    <cfRule type="cellIs" dxfId="170" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="102" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113">
-    <cfRule type="cellIs" dxfId="169" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="103" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113">
-    <cfRule type="containsBlanks" dxfId="168" priority="104">
+    <cfRule type="containsBlanks" dxfId="40" priority="104">
       <formula>LEN(TRIM(H113))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="167" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="129" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="166" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="130" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="165" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="131" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="containsBlanks" dxfId="164" priority="132">
+    <cfRule type="containsBlanks" dxfId="36" priority="132">
       <formula>LEN(TRIM(H95))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="151" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="125" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="150" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="126" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="149" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="127" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="containsBlanks" dxfId="148" priority="128">
+    <cfRule type="containsBlanks" dxfId="32" priority="128">
       <formula>LEN(TRIM(H77))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="123" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="121" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="122" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="122" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="cellIs" dxfId="121" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="123" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="containsBlanks" dxfId="120" priority="124">
+    <cfRule type="containsBlanks" dxfId="28" priority="124">
       <formula>LEN(TRIM(H105))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110">
-    <cfRule type="cellIs" dxfId="119" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="117" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110">
-    <cfRule type="cellIs" dxfId="118" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="118" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110">
-    <cfRule type="cellIs" dxfId="117" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="119" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110">
-    <cfRule type="containsBlanks" dxfId="116" priority="120">
+    <cfRule type="containsBlanks" dxfId="24" priority="120">
       <formula>LEN(TRIM(H110))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104">
-    <cfRule type="cellIs" dxfId="115" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="113" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104">
-    <cfRule type="cellIs" dxfId="114" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="114" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104">
-    <cfRule type="cellIs" dxfId="113" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="115" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104">
-    <cfRule type="containsBlanks" dxfId="112" priority="116">
+    <cfRule type="containsBlanks" dxfId="20" priority="116">
       <formula>LEN(TRIM(H104))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="cellIs" dxfId="99" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="89" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="cellIs" dxfId="98" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="90" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="cellIs" dxfId="97" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="91" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="containsBlanks" dxfId="96" priority="92">
+    <cfRule type="containsBlanks" dxfId="16" priority="92">
       <formula>LEN(TRIM(H122))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H127">
-    <cfRule type="cellIs" dxfId="95" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="93" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H127">
-    <cfRule type="cellIs" dxfId="94" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="94" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H127">
-    <cfRule type="cellIs" dxfId="93" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="95" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H127">
-    <cfRule type="containsBlanks" dxfId="92" priority="96">
+    <cfRule type="containsBlanks" dxfId="12" priority="96">
       <formula>LEN(TRIM(H127))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H130">
-    <cfRule type="cellIs" dxfId="87" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="85" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H130">
-    <cfRule type="cellIs" dxfId="86" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="86" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H130">
-    <cfRule type="cellIs" dxfId="85" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="87" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H130">
-    <cfRule type="containsBlanks" dxfId="84" priority="88">
+    <cfRule type="containsBlanks" dxfId="8" priority="88">
       <formula>LEN(TRIM(H130))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="cellIs" dxfId="83" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="81" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="82" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="83" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="containsBlanks" dxfId="80" priority="84">
+    <cfRule type="containsBlanks" dxfId="4" priority="84">
       <formula>LEN(TRIM(H135))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H138">
-    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="77" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H138">
-    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="78" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H138">
-    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="79" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H138">
-    <cfRule type="containsBlanks" dxfId="76" priority="80">
+    <cfRule type="containsBlanks" dxfId="0" priority="80">
       <formula>LEN(TRIM(H138))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Health-care System Test Cases Writing/Doctor registration.xlsx
+++ b/Health-care System Test Cases Writing/Doctor registration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA and Cyber Security Course\TestCase Github\Test-Cases\Health-care System Test Cases Writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AB58A0-89F7-4E91-AC25-66BA609C10B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAD1A03-DBE5-4D11-B3E1-364BE62F520A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3255" yWindow="1530" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="153">
   <si>
     <t>PASS</t>
   </si>
@@ -470,6 +470,15 @@
   </si>
   <si>
     <t>Test Cases for Doctor Registration Process</t>
+  </si>
+  <si>
+    <t>Enter  address</t>
+  </si>
+  <si>
+    <t>Enter a password</t>
+  </si>
+  <si>
+    <t>Enter different confirm password</t>
   </si>
 </sst>
 </file>
@@ -3348,9 +3357,9 @@
   </sheetPr>
   <dimension ref="A1:I967"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5365,7 +5374,7 @@
         <v>88</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="F108" s="16"/>
       <c r="G108" s="17"/>
@@ -5524,7 +5533,7 @@
         <v>88</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="F117" s="16"/>
       <c r="G117" s="17"/>
@@ -5558,7 +5567,7 @@
         <v>66</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="F119" s="16"/>
       <c r="G119" s="17"/>
@@ -5575,7 +5584,7 @@
         <v>116</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="F120" s="16"/>
       <c r="G120" s="17"/>
